--- a/2 course/ElectricalEngineering/3/Calc.xlsx
+++ b/2 course/ElectricalEngineering/3/Calc.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE4DBA2-6877-48CC-AB84-628C6A71D274}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA7C1E2-011C-4D29-AFE6-13119F33A5A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Schem1" sheetId="2" r:id="rId2"/>
     <sheet name="Schem2" sheetId="3" r:id="rId3"/>
     <sheet name="Schem3" sheetId="4" r:id="rId4"/>
+    <sheet name="Sccem4" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="52">
   <si>
     <t>U</t>
   </si>
@@ -121,16 +122,92 @@
   </si>
   <si>
     <t>XC*I</t>
+  </si>
+  <si>
+    <t>BL</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>ZL</t>
+  </si>
+  <si>
+    <t>ZR</t>
+  </si>
+  <si>
+    <t>ZLRR</t>
+  </si>
+  <si>
+    <t>ZI</t>
+  </si>
+  <si>
+    <t>GLR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZLR </t>
+  </si>
+  <si>
+    <t>IR</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>arctg((BL-Bc)G) * (-1)</t>
+  </si>
+  <si>
+    <t>fiR</t>
+  </si>
+  <si>
+    <t>fiL</t>
+  </si>
+  <si>
+    <t>Zc</t>
+  </si>
+  <si>
+    <t>Zl</t>
+  </si>
+  <si>
+    <t>ZRC</t>
+  </si>
+  <si>
+    <t>GRC</t>
+  </si>
+  <si>
+    <t>ZRCL</t>
+  </si>
+  <si>
+    <t>Zu</t>
+  </si>
+  <si>
+    <t>URC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -177,15 +254,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,7 +548,7 @@
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,12 +658,12 @@
       <c r="M3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="2">
         <v>3</v>
       </c>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1510,15 +1589,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2363A128-0D8A-43FB-9D0D-EB47FABF8C16}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1622,7 +1701,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1632,11 +1711,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1737,12 +1816,372 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C957BA2-09E2-4958-81BC-F5F5AE2B7D64}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="48.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <f ca="1">SQRT(IMREAL(B10)^2 +IMAGINARY(B10)^2)</f>
+        <v>7.3080521286455406E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4" t="str">
+        <f ca="1">COMPLEX(Data!M5,0)</f>
+        <v>55</v>
+      </c>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="4" t="str">
+        <f ca="1">COMPLEX(0,Data!P5)</f>
+        <v>55000i</v>
+      </c>
+      <c r="C5" s="4">
+        <f ca="1">DEGREES(IMARGUMENT(B5))</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="4" t="str">
+        <f ca="1">COMPLEX(Data!N5,0)</f>
+        <v>45000</v>
+      </c>
+      <c r="C6" s="4">
+        <f t="shared" ref="C6:C9" ca="1" si="0">DEGREES(IMARGUMENT(B6))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="4" t="str">
+        <f ca="1">IMDIV(IMSUM(B5,B6),IMPRODUCT(B5,B6))</f>
+        <v>0.0000222222222222222-0.0000181818181818182i</v>
+      </c>
+      <c r="C7" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>-39.289406862500414</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="4" t="str">
+        <f ca="1">IMDIV(1,B7)</f>
+        <v>26955.4455445544+22054.4554455446i</v>
+      </c>
+      <c r="C8" s="4">
+        <f t="shared" ca="1" si="0"/>
+        <v>39.289406862500478</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="4" t="str">
+        <f ca="1">IMSUM(B6,B8)</f>
+        <v>71955.4455445544+22054.4554455446i</v>
+      </c>
+      <c r="C9" s="4">
+        <f ca="1">DEGREES(IMARGUMENT(B9))</f>
+        <v>17.040383205288041</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" t="str">
+        <f ca="1">IMDIV(1,B5)</f>
+        <v>-0.0000181818181818182i</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="4" t="str">
+        <f ca="1">IMDIV(B4,B9)</f>
+        <v>0.000698721730580138-0.000214159292035399i</v>
+      </c>
+      <c r="C10" s="4">
+        <f ca="1">DEGREES(IMARGUMENT(B10))</f>
+        <v>-17.040383205288041</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" t="str">
+        <f ca="1">IMDIV(1,Schem3!B6)</f>
+        <v>0.0000222222222222222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="4" t="str">
+        <f ca="1">IMPRODUCT(B10,B6)</f>
+        <v>31.4424778761062-9.63716814159296i</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="E11">
+        <f ca="1">SQRT(IMREAL(F9)^2 +IMAGINARY(F9)^2)</f>
+        <v>1.8181818181818199E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="str">
+        <f ca="1">IMSUB(B4,B11)</f>
+        <v>23.5575221238938+9.63716814159296i</v>
+      </c>
+      <c r="E12">
+        <f ca="1">SQRT(IMREAL(F10)^2 +IMAGINARY(F10)^2)</f>
+        <v>2.22222222222222E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="str">
+        <f ca="1">IMDIV(B12,B6)</f>
+        <v>0.000523500491642084+0.000214159292035399i</v>
+      </c>
+      <c r="C13">
+        <f ca="1">SQRT(IMREAL(B13)^2 +IMAGINARY(B13)^2)</f>
+        <v>5.6561202879235777E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" t="str">
+        <f ca="1">IMDIV(B12,B5)</f>
+        <v>0.000175221238938054-0.000428318584070796i</v>
+      </c>
+      <c r="C14">
+        <f ca="1">SQRT(IMREAL(B14)^2 +IMAGINARY(B14)^2)</f>
+        <v>4.6277347810283828E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15">
+        <f ca="1">DEGREES(IMARGUMENT(B14))+90</f>
+        <v>22.24902365721249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF8E530-CABE-429C-997C-CC5B8F4F526C}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="35.28515625" customWidth="1"/>
+    <col min="6" max="6" width="42.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" t="str">
+        <f ca="1">COMPLEX(Data!M5,0)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <f ca="1">SQRT(IMREAL(F9)^2 +IMAGINARY(F9)^2)</f>
+        <v>6.7674124470229837E-4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" t="str">
+        <f ca="1">COMPLEX(0,Data!Q5)</f>
+        <v>50000i</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="str">
+        <f ca="1">IMPRODUCT(F5,F9)</f>
+        <v>35.4364191464001+11.3862110788148i</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="str">
+        <f ca="1">COMPLEX(Data!N5,0)</f>
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="str">
+        <f ca="1">IMSUB(F2,C4)</f>
+        <v>19.5635808535999-11.3862110788148i</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" t="str">
+        <f ca="1">COMPLEX(0,Data!P5)</f>
+        <v>55000i</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="str">
+        <f ca="1">IMDIV(C5,F4)</f>
+        <v>0.000434746241191109-0.000253026912862551i</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" t="str">
+        <f ca="1">IMDIV(IMSUM(F4,F3),IMPRODUCT(F4,F3))</f>
+        <v>0.0000222222222222222-0.00002i</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="str">
+        <f ca="1">IMDIV(C5,F5)</f>
+        <v>-0.000207022019614815-0.000355701470065453i</v>
+      </c>
+      <c r="E7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" t="str">
+        <f ca="1">IMDIV(1,F6)</f>
+        <v>24861.8784530387+22375.6906077348i</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" t="str">
+        <f ca="1">IMSUM(F7,F5)</f>
+        <v>24861.8784530387+77375.6906077348i</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="str">
+        <f ca="1">IMDIV(F2,Sccem4!F8)</f>
+        <v>0.000207022019614814-0.000644298529934548i</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/2 course/ElectricalEngineering/3/Calc.xlsx
+++ b/2 course/ElectricalEngineering/3/Calc.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA7C1E2-011C-4D29-AFE6-13119F33A5A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3207D6E6-BB13-40BD-8DC0-CB2CBF1CE0CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,7 +12,8 @@
     <sheet name="Schem1" sheetId="2" r:id="rId2"/>
     <sheet name="Schem2" sheetId="3" r:id="rId3"/>
     <sheet name="Schem3" sheetId="4" r:id="rId4"/>
-    <sheet name="Sccem4" sheetId="5" r:id="rId5"/>
+    <sheet name="Schem4" sheetId="5" r:id="rId5"/>
+    <sheet name="Result" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="63">
   <si>
     <t>U</t>
   </si>
@@ -185,6 +186,39 @@
   </si>
   <si>
     <t>URC</t>
+  </si>
+  <si>
+    <t>Schem</t>
+  </si>
+  <si>
+    <t>Measured</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>fi1</t>
+  </si>
+  <si>
+    <t>fi2</t>
+  </si>
+  <si>
+    <t>IC</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>fiC</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>BL-BC</t>
+  </si>
+  <si>
+    <t>(BL-BC)/G</t>
   </si>
 </sst>
 </file>
@@ -254,17 +288,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -547,7 +593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
@@ -658,12 +704,12 @@
       <c r="M3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="4">
         <v>3</v>
       </c>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1701,7 +1747,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1711,11 +1757,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1819,7 +1865,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1834,11 +1880,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1864,76 +1910,76 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="4" t="str">
+      <c r="B4" s="2" t="str">
         <f ca="1">COMPLEX(Data!M5,0)</f>
         <v>55</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="4" t="str">
+      <c r="B5" s="2" t="str">
         <f ca="1">COMPLEX(0,Data!P5)</f>
         <v>55000i</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <f ca="1">DEGREES(IMARGUMENT(B5))</f>
         <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="4" t="str">
+      <c r="B6" s="2" t="str">
         <f ca="1">COMPLEX(Data!N5,0)</f>
         <v>45000</v>
       </c>
-      <c r="C6" s="4">
-        <f t="shared" ref="C6:C9" ca="1" si="0">DEGREES(IMARGUMENT(B6))</f>
+      <c r="C6" s="2">
+        <f t="shared" ref="C6:C8" ca="1" si="0">DEGREES(IMARGUMENT(B6))</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="4" t="str">
+      <c r="B7" s="2" t="str">
         <f ca="1">IMDIV(IMSUM(B5,B6),IMPRODUCT(B5,B6))</f>
         <v>0.0000222222222222222-0.0000181818181818182i</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>-39.289406862500414</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="4" t="str">
+      <c r="B8" s="2" t="str">
         <f ca="1">IMDIV(1,B7)</f>
         <v>26955.4455445544+22054.4554455446i</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="2">
         <f t="shared" ca="1" si="0"/>
         <v>39.289406862500478</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="4" t="str">
+      <c r="B9" s="2" t="str">
         <f ca="1">IMSUM(B6,B8)</f>
         <v>71955.4455445544+22054.4554455446i</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="2">
         <f ca="1">DEGREES(IMARGUMENT(B9))</f>
         <v>17.040383205288041</v>
       </c>
@@ -1946,14 +1992,14 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="4" t="str">
+      <c r="B10" s="2" t="str">
         <f ca="1">IMDIV(B4,B9)</f>
         <v>0.000698721730580138-0.000214159292035399i</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="2">
         <f ca="1">DEGREES(IMARGUMENT(B10))</f>
         <v>-17.040383205288041</v>
       </c>
@@ -1966,21 +2012,21 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="4" t="str">
+      <c r="B11" s="2" t="str">
         <f ca="1">IMPRODUCT(B10,B6)</f>
         <v>31.4424778761062-9.63716814159296i</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="2"/>
       <c r="E11">
         <f ca="1">SQRT(IMREAL(F9)^2 +IMAGINARY(F9)^2)</f>
         <v>1.8181818181818199E-5</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B12" t="str">
@@ -1993,7 +2039,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B13" t="str">
@@ -2006,7 +2052,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B14" t="str">
@@ -2019,7 +2065,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B15" t="s">
@@ -2031,7 +2077,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="3" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2045,15 +2091,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF8E530-CABE-429C-997C-CC5B8F4F526C}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="35.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" customWidth="1"/>
     <col min="6" max="6" width="42.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2139,6 +2186,10 @@
         <f ca="1">IMDIV(C5,F4)</f>
         <v>0.000434746241191109-0.000253026912862551i</v>
       </c>
+      <c r="D6">
+        <f ca="1">SQRT(IMREAL(C6)^2 +IMAGINARY(C6)^2)</f>
+        <v>5.0301780571124016E-4</v>
+      </c>
       <c r="E6" t="s">
         <v>48</v>
       </c>
@@ -2155,6 +2206,10 @@
         <f ca="1">IMDIV(C5,F5)</f>
         <v>-0.000207022019614815-0.000355701470065453i</v>
       </c>
+      <c r="D7">
+        <f ca="1">SQRT(IMREAL(C7)^2 +IMAGINARY(C7)^2)</f>
+        <v>4.1156002285465144E-4</v>
+      </c>
       <c r="E7" t="s">
         <v>47</v>
       </c>
@@ -2164,6 +2219,17 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" t="str">
+        <f ca="1">IMDIV(C5,F3)</f>
+        <v>-0.000227724221576296-0.000391271617071998i</v>
+      </c>
+      <c r="D8">
+        <f ca="1">SQRT(IMREAL(C8)^2 +IMAGINARY(C8)^2)</f>
+        <v>4.527160251401161E-4</v>
+      </c>
       <c r="E8" t="s">
         <v>49</v>
       </c>
@@ -2173,13 +2239,397 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9">
+        <f ca="1">DEGREES(IMARGUMENT(C6))+90</f>
+        <v>59.800141928856391</v>
+      </c>
       <c r="E9" t="s">
         <v>36</v>
       </c>
       <c r="F9" t="str">
-        <f ca="1">IMDIV(F2,Sccem4!F8)</f>
+        <f ca="1">IMDIV(F2,Schem4!F8)</f>
         <v>0.000207022019614814-0.000644298529934548i</v>
       </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10">
+        <f ca="1">DEGREES(IMARGUMENT(C7))+90</f>
+        <v>-30.199858071143666</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11">
+        <f ca="1">DEGREES(IMARGUMENT(C8))-90</f>
+        <v>-210.19985807114364</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="e">
+        <f ca="1">-_xlfn.ACOT((1/F5-1/F3)/(1/F4))</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" t="str">
+        <f ca="1">IMDIV(1,F3)</f>
+        <v>-0.00002i</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" ref="D15:D16" ca="1" si="0">IMDIV(1,F4)</f>
+        <v>0.0000222222222222222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.0000181818181818182i</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" t="str">
+        <f ca="1">IMSUB(D16,D14)</f>
+        <v>0.0000018181818181818i</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" t="str">
+        <f ca="1">IMDIV(D17,D16)</f>
+        <v>-0.0999999999999989</v>
+      </c>
+      <c r="F18">
+        <f>DEGREES(-0.089)</f>
+        <v>-5.0993243766643266</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <f ca="1">DEGREES(_xlfn.ACOT(SQRT(IMREAL(D18)^2 +IMAGINARY(D18)^2)))+0</f>
+        <v>84.289406862500414</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E409801-59D1-498F-AEC7-821D13E08F6C}">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="6">
+        <f ca="1">Data!M5</f>
+        <v>55</v>
+      </c>
+      <c r="C2" s="6">
+        <f ca="1">Schem1!C5</f>
+        <v>7.73957299203321E-4</v>
+      </c>
+      <c r="D2" s="6" t="str">
+        <f>Schem1!B6</f>
+        <v>I*R</v>
+      </c>
+      <c r="E2" s="6">
+        <f ca="1">Schem1!C7</f>
+        <v>42.567651456182652</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6">
+        <f ca="1">Schem1!C8</f>
+        <v>39.289406862500357</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="6">
+        <f ca="1">B2</f>
+        <v>55</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="6">
+        <f t="shared" ref="B4:B5" ca="1" si="0">B3</f>
+        <v>55</v>
+      </c>
+      <c r="C4" s="6">
+        <f ca="1">Schem2!C5</f>
+        <v>8.1762356087188297E-4</v>
+      </c>
+      <c r="D4" s="6">
+        <f ca="1">Schem2!C6</f>
+        <v>36.793060239234734</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="6">
+        <f ca="1">Schem2!C7</f>
+        <v>40.881178043594147</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <f ca="1">Schem2!C8</f>
+        <v>-41.987212495816657</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="str">
+        <f>A3</f>
+        <v>Measured</v>
+      </c>
+      <c r="B5" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="str">
+        <f>A1</f>
+        <v>Schem</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="str">
+        <f t="shared" ref="A8:B11" si="1">A2</f>
+        <v>Calcs</v>
+      </c>
+      <c r="B8" s="6">
+        <f ca="1">B2</f>
+        <v>55</v>
+      </c>
+      <c r="C8" s="6">
+        <f ca="1">Schem3!C3</f>
+        <v>7.3080521286455406E-4</v>
+      </c>
+      <c r="D8" s="6">
+        <f ca="1">Schem3!C13</f>
+        <v>5.6561202879235777E-4</v>
+      </c>
+      <c r="E8" s="6">
+        <f ca="1">Schem3!C14</f>
+        <v>4.6277347810283828E-4</v>
+      </c>
+      <c r="F8" s="6" t="str">
+        <f>F2</f>
+        <v>X</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6">
+        <f ca="1">Schem3!C15</f>
+        <v>22.24902365721249</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Measured</v>
+      </c>
+      <c r="B9" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6" t="str">
+        <f>F3</f>
+        <v>X</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Calcs</v>
+      </c>
+      <c r="B10" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="C10" s="6">
+        <f ca="1">Schem4!C3</f>
+        <v>6.7674124470229837E-4</v>
+      </c>
+      <c r="D10" s="6">
+        <f ca="1">Schem4!D6</f>
+        <v>5.0301780571124016E-4</v>
+      </c>
+      <c r="E10" s="6">
+        <f ca="1">Schem4!D7</f>
+        <v>4.1156002285465144E-4</v>
+      </c>
+      <c r="F10" s="6">
+        <f ca="1">Schem4!D8</f>
+        <v>4.527160251401161E-4</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="str">
+        <f t="shared" si="1"/>
+        <v>Measured</v>
+      </c>
+      <c r="B11" s="6">
+        <f t="shared" ca="1" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2 course/ElectricalEngineering/3/Calc.xlsx
+++ b/2 course/ElectricalEngineering/3/Calc.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3207D6E6-BB13-40BD-8DC0-CB2CBF1CE0CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209C3714-C450-4B60-82B0-71179891B5BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="70">
   <si>
     <t>U</t>
   </si>
@@ -125,12 +125,6 @@
     <t>XC*I</t>
   </si>
   <si>
-    <t>BL</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
     <t>ZL</t>
   </si>
   <si>
@@ -140,15 +134,6 @@
     <t>ZLRR</t>
   </si>
   <si>
-    <t>ZI</t>
-  </si>
-  <si>
-    <t>GLR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZLR </t>
-  </si>
-  <si>
     <t>IR</t>
   </si>
   <si>
@@ -158,36 +143,9 @@
     <t>IL</t>
   </si>
   <si>
-    <t>arctg((BL-Bc)G) * (-1)</t>
-  </si>
-  <si>
-    <t>fiR</t>
-  </si>
-  <si>
-    <t>fiL</t>
-  </si>
-  <si>
-    <t>Zc</t>
-  </si>
-  <si>
-    <t>Zl</t>
-  </si>
-  <si>
-    <t>ZRC</t>
-  </si>
-  <si>
-    <t>GRC</t>
-  </si>
-  <si>
     <t>ZRCL</t>
   </si>
   <si>
-    <t>Zu</t>
-  </si>
-  <si>
-    <t>URC</t>
-  </si>
-  <si>
     <t>Schem</t>
   </si>
   <si>
@@ -209,33 +167,89 @@
     <t>X</t>
   </si>
   <si>
-    <t>fiC</t>
-  </si>
-  <si>
-    <t>BC</t>
-  </si>
-  <si>
-    <t>BL-BC</t>
-  </si>
-  <si>
-    <t>(BL-BC)/G</t>
+    <t>arctg(Xс/R)</t>
+  </si>
+  <si>
+    <t>ZLR</t>
+  </si>
+  <si>
+    <t>ZLR+R</t>
+  </si>
+  <si>
+    <t>E/ZLRR</t>
+  </si>
+  <si>
+    <t>Exponential Form</t>
+  </si>
+  <si>
+    <t>I*ZLR</t>
+  </si>
+  <si>
+    <t>I*ZR</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>URL/ZR</t>
+  </si>
+  <si>
+    <t>URL/ZL</t>
+  </si>
+  <si>
+    <t>Algebraic(Real)</t>
+  </si>
+  <si>
+    <t>ZC</t>
+  </si>
+  <si>
+    <t>BLR</t>
+  </si>
+  <si>
+    <t>1/BLR</t>
+  </si>
+  <si>
+    <t>GCL</t>
+  </si>
+  <si>
+    <t>(ZL+ZR)/(ZL*ZR)</t>
+  </si>
+  <si>
+    <t>(ZL+ZC)/(ZL*ZC)</t>
+  </si>
+  <si>
+    <t>ZCL</t>
+  </si>
+  <si>
+    <t>1/GCL</t>
+  </si>
+  <si>
+    <t>ZR+ZCL</t>
+  </si>
+  <si>
+    <t>U/ZRCL</t>
+  </si>
+  <si>
+    <t>ULC</t>
+  </si>
+  <si>
+    <t>I*ZLC</t>
+  </si>
+  <si>
+    <t>ULC/ZL</t>
+  </si>
+  <si>
+    <t>ULC/ZC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1" tint="0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -288,17 +302,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -309,6 +316,27 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -704,12 +732,12 @@
       <c r="M3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="7">
         <v>3</v>
       </c>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1636,7 +1664,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C8" sqref="A1:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1647,29 +1675,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="8" t="s">
         <v>8</v>
       </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <f ca="1">Data!P5/(3.14*2*Data!O5)*10^3</f>
         <v>125.11373976342129</v>
       </c>
@@ -1678,66 +1708,69 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <f ca="1">SQRT(Data!N5*Data!N5+(Data!P5)^2)</f>
         <v>71063.352017759476</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <f ca="1">Data!M5/Schem1!C4</f>
         <v>7.73957299203321E-4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <f ca="1">Data!N5*Schem1!C5</f>
         <v>34.828078464149442</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <f ca="1">Data!P5*Schem1!C5</f>
         <v>42.567651456182652</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <f ca="1">_xlfn.ACOT(Data!P5/Data!N5)*180/PI()</f>
         <v>39.289406862500357</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1747,7 +1780,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C8" sqref="A1:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1757,31 +1790,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <f ca="1">1/(Data!O5*2*3.14*Data!Q5)*10^12</f>
         <v>45.49590536851683</v>
       </c>
@@ -1790,64 +1823,67 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="str">
+      <c r="B4" s="1" t="str">
         <f>Schem1!B4</f>
         <v>sqrt(R^2+(Xl-Xc)^2)</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <f ca="1">SQRT(Data!N5*Data!N5+(Data!Q5)^2)</f>
         <v>67268.120235368551</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="str">
+      <c r="A5" s="1" t="str">
         <f>Schem1!A5</f>
         <v>I</v>
       </c>
-      <c r="B5" t="str">
+      <c r="B5" s="1" t="str">
         <f>Schem1!B5</f>
         <v>E/Z</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <f ca="1">Data!M5/Schem2!C4</f>
         <v>8.1762356087188297E-4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="str">
+      <c r="A6" s="1" t="str">
         <f>Schem1!A6</f>
         <v>UR</v>
       </c>
-      <c r="B6" t="str">
+      <c r="B6" s="1" t="str">
         <f>Schem1!B6</f>
         <v>I*R</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <f ca="1">Data!N5*Schem2!C5</f>
         <v>36.793060239234734</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <f ca="1">Data!Q5*Schem2!C5</f>
         <v>40.881178043594147</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="str">
+      <c r="A8" s="1" t="str">
         <f>Schem1!A8</f>
         <v>fi</v>
       </c>
-      <c r="C8">
+      <c r="B8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="1">
         <f ca="1">DEGREES(ATAN(Data!Q5/Data!N5))-90</f>
         <v>-41.987212495816657</v>
       </c>
@@ -1862,228 +1898,267 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C957BA2-09E2-4958-81BC-F5F5AE2B7D64}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection sqref="A1:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="48.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="43" customWidth="1"/>
     <col min="8" max="8" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3">
-        <f ca="1">SQRT(IMREAL(B10)^2 +IMAGINARY(B10)^2)</f>
-        <v>7.3080521286455406E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="str">
-        <f ca="1">COMPLEX(Data!M5,0)</f>
-        <v>55</v>
-      </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="2" t="str">
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="11" t="str">
         <f ca="1">COMPLEX(0,Data!P5)</f>
         <v>55000i</v>
       </c>
-      <c r="C5" s="2">
-        <f ca="1">DEGREES(IMARGUMENT(B5))</f>
+      <c r="D4" s="11">
+        <f ca="1">SQRT(IMREAL(C4)^2 +IMAGINARY(C4)^2)</f>
+        <v>55000</v>
+      </c>
+      <c r="E4" s="11">
+        <f ca="1">DEGREES(IMARGUMENT(C4))</f>
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="2" t="str">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="11" t="str">
         <f ca="1">COMPLEX(Data!N5,0)</f>
         <v>45000</v>
       </c>
-      <c r="C6" s="2">
-        <f t="shared" ref="C6:C8" ca="1" si="0">DEGREES(IMARGUMENT(B6))</f>
+      <c r="D5" s="11">
+        <f t="shared" ref="D5:D13" ca="1" si="0">SQRT(IMREAL(C5)^2 +IMAGINARY(C5)^2)</f>
+        <v>45000</v>
+      </c>
+      <c r="E5" s="11">
+        <f t="shared" ref="E5:E11" ca="1" si="1">DEGREES(IMARGUMENT(C5))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="2" t="str">
-        <f ca="1">IMDIV(IMSUM(B5,B6),IMPRODUCT(B5,B6))</f>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="11" t="str">
+        <f ca="1">IMDIV(IMSUM(C4,C5),IMPRODUCT(C4,C5))</f>
         <v>0.0000222222222222222-0.0000181818181818182i</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D6" s="11">
         <f t="shared" ca="1" si="0"/>
+        <v>2.8712465461720994E-5</v>
+      </c>
+      <c r="E6" s="11">
+        <f t="shared" ca="1" si="1"/>
         <v>-39.289406862500414</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="2" t="str">
-        <f ca="1">IMDIV(1,B7)</f>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="11" t="str">
+        <f ca="1">IMDIV(1,C6)</f>
         <v>26955.4455445544+22054.4554455446i</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D7" s="11">
         <f t="shared" ca="1" si="0"/>
+        <v>34828.078464149432</v>
+      </c>
+      <c r="E7" s="11">
+        <f t="shared" ca="1" si="1"/>
         <v>39.289406862500478</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="11" t="str">
+        <f ca="1">IMSUM(C7,C5)</f>
+        <v>71955.4455445544+22054.4554455446i</v>
+      </c>
+      <c r="D8" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>75259.452220401159</v>
+      </c>
+      <c r="E8" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>17.040383205288041</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="11" t="str">
+        <f ca="1">IMDIV(Data!M5,C8)</f>
+        <v>0.000698721730580138-0.000214159292035399i</v>
+      </c>
+      <c r="D9" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.3080521286455406E-4</v>
+      </c>
+      <c r="E9" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>-17.040383205288041</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="11" t="str">
+        <f ca="1">IMPRODUCT(C9,C5)</f>
+        <v>31.4424778761062-9.63716814159296i</v>
+      </c>
+      <c r="D10" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>32.886234578904926</v>
+      </c>
+      <c r="E10" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>-17.040383205288055</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="2" t="str">
-        <f ca="1">IMSUM(B6,B8)</f>
-        <v>71955.4455445544+22054.4554455446i</v>
-      </c>
-      <c r="C9" s="2">
-        <f ca="1">DEGREES(IMARGUMENT(B9))</f>
-        <v>17.040383205288041</v>
-      </c>
-      <c r="E9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" t="str">
-        <f ca="1">IMDIV(1,B5)</f>
-        <v>-0.0000181818181818182i</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="B11" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="11" t="str">
+        <f ca="1">IMPRODUCT(C9,C7)</f>
+        <v>23.5575221238938+9.63716814159295i</v>
+      </c>
+      <c r="D11" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>25.452541295656118</v>
+      </c>
+      <c r="E11" s="11">
+        <f t="shared" ca="1" si="1"/>
+        <v>22.249023657212433</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="11" t="str">
+        <f ca="1">IMDIV(C11,C5)</f>
+        <v>0.000523500491642084+0.000214159292035399i</v>
+      </c>
+      <c r="D12" s="11">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.6561202879235777E-4</v>
+      </c>
+      <c r="E12" s="11">
+        <f t="shared" ref="E12:E13" ca="1" si="2">DEGREES(IMARGUMENT(C12))</f>
+        <v>22.249023657212458</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="2" t="str">
-        <f ca="1">IMDIV(B4,B9)</f>
-        <v>0.000698721730580138-0.000214159292035399i</v>
-      </c>
-      <c r="C10" s="2">
-        <f ca="1">DEGREES(IMARGUMENT(B10))</f>
-        <v>-17.040383205288041</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" t="str">
-        <f ca="1">IMDIV(1,Schem3!B6)</f>
-        <v>0.0000222222222222222</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="2" t="str">
-        <f ca="1">IMPRODUCT(B10,B6)</f>
-        <v>31.4424778761062-9.63716814159296i</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="E11">
-        <f ca="1">SQRT(IMREAL(F9)^2 +IMAGINARY(F9)^2)</f>
-        <v>1.8181818181818199E-5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" t="str">
-        <f ca="1">IMSUB(B4,B11)</f>
-        <v>23.5575221238938+9.63716814159296i</v>
-      </c>
-      <c r="E12">
-        <f ca="1">SQRT(IMREAL(F10)^2 +IMAGINARY(F10)^2)</f>
-        <v>2.22222222222222E-5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" t="str">
-        <f ca="1">IMDIV(B12,B6)</f>
-        <v>0.000523500491642084+0.000214159292035399i</v>
-      </c>
-      <c r="C13">
-        <f ca="1">SQRT(IMREAL(B13)^2 +IMAGINARY(B13)^2)</f>
-        <v>5.6561202879235777E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" t="str">
-        <f ca="1">IMDIV(B12,B5)</f>
+      <c r="B13" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="11" t="str">
+        <f ca="1">IMDIV(C11,C4)</f>
         <v>0.000175221238938054-0.000428318584070796i</v>
       </c>
-      <c r="C14">
-        <f ca="1">SQRT(IMREAL(B14)^2 +IMAGINARY(B14)^2)</f>
+      <c r="D13" s="11">
+        <f t="shared" ca="1" si="0"/>
         <v>4.6277347810283828E-4</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15">
-        <f ca="1">DEGREES(IMARGUMENT(B14))+90</f>
-        <v>22.24902365721249</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="E13" s="11">
+        <f t="shared" ca="1" si="2"/>
+        <v>-67.75097634278751</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+  <mergeCells count="4">
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2091,252 +2166,285 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF8E530-CABE-429C-997C-CC5B8F4F526C}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
     <col min="6" max="6" width="42.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" t="str">
-        <f ca="1">COMPLEX(Data!M5,0)</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3">
-        <f ca="1">SQRT(IMREAL(F9)^2 +IMAGINARY(F9)^2)</f>
-        <v>6.7674124470229837E-4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" t="str">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="1" t="str">
+        <f>A4</f>
+        <v>ZL</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f ca="1">COMPLEX(0,Data!P5)</f>
+        <v>55000i</v>
+      </c>
+      <c r="D4" s="1">
+        <f ca="1">SQRT(IMREAL(C4)^2 +IMAGINARY(C4)^2)</f>
+        <v>55000</v>
+      </c>
+      <c r="E4" s="1">
+        <f ca="1">DEGREES(IMARGUMENT(C4))</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="1" t="str">
+        <f t="shared" ref="B5:B6" si="0">A5</f>
+        <v>ZC</v>
+      </c>
+      <c r="C5" s="1" t="str">
         <f ca="1">COMPLEX(0,Data!Q5)</f>
         <v>50000i</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="str">
-        <f ca="1">IMPRODUCT(F5,F9)</f>
-        <v>35.4364191464001+11.3862110788148i</v>
-      </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" t="str">
+      <c r="D5" s="1">
+        <f t="shared" ref="D5:D14" ca="1" si="1">SQRT(IMREAL(C5)^2 +IMAGINARY(C5)^2)</f>
+        <v>50000</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" ref="E5:E6" ca="1" si="2">DEGREES(IMARGUMENT(C5))</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>ZR</v>
+      </c>
+      <c r="C6" s="1" t="str">
         <f ca="1">COMPLEX(Data!N5,0)</f>
         <v>45000</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D6" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>45000</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="1" t="str">
+        <f ca="1">IMDIV(IMSUM(C4,C5),IMPRODUCT(C4,C5))</f>
+        <v>-0.0000381818181818182i</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>3.8181818181818201E-5</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" ref="E7:E14" ca="1" si="3">DEGREES(IMARGUMENT(C7))</f>
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <f ca="1">IMDIV(1,C7)</f>
+        <v>26190.4761904762i</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>26190.476190476202</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="1" t="str">
+        <f ca="1">IMSUM(C6,C8)</f>
+        <v>45000+26190.4761904762i</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>52066.698023630241</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>30.199858071143542</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="1" t="str">
+        <f ca="1">IMDIV(Data!M5,C9)</f>
+        <v>0.000912967106501328-0.000531356517011355i</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.0563373919936024E-3</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>-30.199858071143527</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C5" t="str">
-        <f ca="1">IMSUB(F2,C4)</f>
-        <v>19.5635808535999-11.3862110788148i</v>
-      </c>
-      <c r="E5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" t="str">
-        <f ca="1">COMPLEX(0,Data!P5)</f>
-        <v>55000i</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" t="str">
-        <f ca="1">IMDIV(C5,F4)</f>
+      <c r="C11" s="1" t="str">
+        <f ca="1">IMPRODUCT(C10,C6)</f>
+        <v>41.0835197925598-23.911043265511i</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>47.535182639712154</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>-30.199858071143534</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="1" t="str">
+        <f ca="1">IMPRODUCT(C10,C8)</f>
+        <v>13.9164802074403+23.911043265511i</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>27.665979314118207</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>59.800141928856419</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <f ca="1">IMDIV(C12,C4)</f>
         <v>0.000434746241191109-0.000253026912862551i</v>
       </c>
-      <c r="D6">
-        <f ca="1">SQRT(IMREAL(C6)^2 +IMAGINARY(C6)^2)</f>
+      <c r="D13" s="1">
+        <f t="shared" ca="1" si="1"/>
         <v>5.0301780571124016E-4</v>
       </c>
-      <c r="E6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" t="str">
-        <f ca="1">IMDIV(IMSUM(F4,F3),IMPRODUCT(F4,F3))</f>
-        <v>0.0000222222222222222-0.00002i</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" t="str">
-        <f ca="1">IMDIV(C5,F5)</f>
-        <v>-0.000207022019614815-0.000355701470065453i</v>
-      </c>
-      <c r="D7">
-        <f ca="1">SQRT(IMREAL(C7)^2 +IMAGINARY(C7)^2)</f>
-        <v>4.1156002285465144E-4</v>
-      </c>
-      <c r="E7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" t="str">
-        <f ca="1">IMDIV(1,F6)</f>
-        <v>24861.8784530387+22375.6906077348i</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" t="str">
-        <f ca="1">IMDIV(C5,F3)</f>
-        <v>-0.000227724221576296-0.000391271617071998i</v>
-      </c>
-      <c r="D8">
-        <f ca="1">SQRT(IMREAL(C8)^2 +IMAGINARY(C8)^2)</f>
-        <v>4.527160251401161E-4</v>
-      </c>
-      <c r="E8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" t="str">
-        <f ca="1">IMSUM(F7,F5)</f>
-        <v>24861.8784530387+77375.6906077348i</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="E13" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>-30.199858071143606</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D9">
-        <f ca="1">DEGREES(IMARGUMENT(C6))+90</f>
-        <v>59.800141928856391</v>
-      </c>
-      <c r="E9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" t="str">
-        <f ca="1">IMDIV(F2,Schem4!F8)</f>
-        <v>0.000207022019614814-0.000644298529934548i</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10">
-        <f ca="1">DEGREES(IMARGUMENT(C7))+90</f>
-        <v>-30.199858071143666</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11">
-        <f ca="1">DEGREES(IMARGUMENT(C8))-90</f>
-        <v>-210.19985807114364</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="e">
-        <f ca="1">-_xlfn.ACOT((1/F5-1/F3)/(1/F4))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" t="str">
-        <f ca="1">IMDIV(1,F3)</f>
-        <v>-0.00002i</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" t="str">
-        <f t="shared" ref="D15:D16" ca="1" si="0">IMDIV(1,F4)</f>
-        <v>0.0000222222222222222</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>-0.0000181818181818182i</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" t="str">
-        <f ca="1">IMSUB(D16,D14)</f>
-        <v>0.0000018181818181818i</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" t="str">
-        <f ca="1">IMDIV(D17,D16)</f>
-        <v>-0.0999999999999989</v>
-      </c>
-      <c r="F18">
-        <f>DEGREES(-0.089)</f>
-        <v>-5.0993243766643266</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D19">
-        <f ca="1">DEGREES(_xlfn.ACOT(SQRT(IMREAL(D18)^2 +IMAGINARY(D18)^2)))+0</f>
-        <v>84.289406862500414</v>
+      <c r="B14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="1" t="str">
+        <f ca="1">IMDIV(C12,C5)</f>
+        <v>0.00047822086531022-0.000278329604148806i</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.5331958628236416E-4</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>-30.199858071143591</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C2:E2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2345,8 +2453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E409801-59D1-498F-AEC7-821D13E08F6C}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2355,281 +2463,369 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="A1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>56</v>
+      <c r="H1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="3">
         <f ca="1">Data!M5</f>
         <v>55</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="3">
         <f ca="1">Schem1!C5</f>
         <v>7.73957299203321E-4</v>
       </c>
-      <c r="D2" s="6" t="str">
+      <c r="D2" s="3" t="str">
         <f>Schem1!B6</f>
         <v>I*R</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="3">
         <f ca="1">Schem1!C7</f>
         <v>42.567651456182652</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="6">
+      <c r="F2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="3">
         <v>0</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="3">
         <v>0</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="3">
         <f ca="1">Schem1!C8</f>
         <v>39.289406862500357</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="6">
+      <c r="A3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="3">
         <f ca="1">B2</f>
         <v>55</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+      <c r="C3" s="3">
+        <f ca="1">C2</f>
+        <v>7.73957299203321E-4</v>
+      </c>
+      <c r="D3" s="3" t="str">
+        <f t="shared" ref="D3:I3" si="0">D2</f>
+        <v>I*R</v>
+      </c>
+      <c r="E3" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>42.567651456182652</v>
+      </c>
+      <c r="F3" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>X</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>39.289406862500357</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="6">
-        <f t="shared" ref="B4:B5" ca="1" si="0">B3</f>
-        <v>55</v>
-      </c>
-      <c r="C4" s="6">
+      <c r="B4" s="3">
+        <f t="shared" ref="B4:B5" ca="1" si="1">B3</f>
+        <v>55</v>
+      </c>
+      <c r="C4" s="3">
         <f ca="1">Schem2!C5</f>
         <v>8.1762356087188297E-4</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="3">
         <f ca="1">Schem2!C6</f>
         <v>36.793060239234734</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="6">
+      <c r="E4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="3">
         <f ca="1">Schem2!C7</f>
         <v>40.881178043594147</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="3">
         <v>0</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="3">
         <v>0</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="3">
         <f ca="1">Schem2!C8</f>
         <v>-41.987212495816657</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="str">
+      <c r="A5" s="5" t="str">
         <f>A3</f>
         <v>Measured</v>
       </c>
-      <c r="B5" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+      <c r="B5" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="C5" s="3">
+        <f ca="1">C4</f>
+        <v>8.1762356087188297E-4</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" ref="D5:I5" ca="1" si="2">D4</f>
+        <v>36.793060239234734</v>
+      </c>
+      <c r="E5" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>X</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>40.881178043594147</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>-41.987212495816657</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="str">
+      <c r="A7" s="5" t="str">
         <f>A1</f>
         <v>Schem</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="D7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>56</v>
+      <c r="I7" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="str">
-        <f t="shared" ref="A8:B11" si="1">A2</f>
+      <c r="A8" s="5" t="str">
+        <f t="shared" ref="A8:B11" si="3">A2</f>
         <v>Calcs</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="3">
         <f ca="1">B2</f>
         <v>55</v>
       </c>
-      <c r="C8" s="6">
-        <f ca="1">Schem3!C3</f>
+      <c r="C8" s="3">
+        <f ca="1">Schem3!D9</f>
         <v>7.3080521286455406E-4</v>
       </c>
-      <c r="D8" s="6">
-        <f ca="1">Schem3!C13</f>
+      <c r="D8" s="3">
+        <f ca="1">Schem3!D12</f>
         <v>5.6561202879235777E-4</v>
       </c>
-      <c r="E8" s="6">
-        <f ca="1">Schem3!C14</f>
+      <c r="E8" s="3">
+        <f ca="1">Schem3!D13</f>
         <v>4.6277347810283828E-4</v>
       </c>
-      <c r="F8" s="6" t="str">
+      <c r="F8" s="3" t="str">
         <f>F2</f>
         <v>X</v>
       </c>
-      <c r="G8" s="6">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6">
-        <v>0</v>
-      </c>
-      <c r="I8" s="6">
-        <f ca="1">Schem3!C15</f>
-        <v>22.24902365721249</v>
+      <c r="G8" s="3">
+        <f ca="1">Schem3!E10</f>
+        <v>-17.040383205288055</v>
+      </c>
+      <c r="H8" s="3">
+        <f ca="1">Schem3!E11</f>
+        <v>22.249023657212433</v>
+      </c>
+      <c r="I8" s="3">
+        <f ca="1">Schem3!E13</f>
+        <v>-67.75097634278751</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="str">
-        <f t="shared" si="1"/>
+      <c r="A9" s="5" t="str">
+        <f t="shared" si="3"/>
         <v>Measured</v>
       </c>
-      <c r="B9" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6" t="str">
-        <f>F3</f>
+      <c r="B9" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="C9" s="3">
+        <f ca="1">C8</f>
+        <v>7.3080521286455406E-4</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" ref="D9:I9" ca="1" si="4">D8</f>
+        <v>5.6561202879235777E-4</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.6277347810283828E-4</v>
+      </c>
+      <c r="F9" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>X</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+      <c r="G9" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>-17.040383205288055</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>22.249023657212433</v>
+      </c>
+      <c r="I9" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>-67.75097634278751</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="str">
-        <f t="shared" si="1"/>
+      <c r="A10" s="5" t="str">
+        <f t="shared" si="3"/>
         <v>Calcs</v>
       </c>
-      <c r="B10" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="C10" s="6">
-        <f ca="1">Schem4!C3</f>
-        <v>6.7674124470229837E-4</v>
-      </c>
-      <c r="D10" s="6">
-        <f ca="1">Schem4!D6</f>
+      <c r="B10" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="C10" s="3">
+        <f ca="1">Schem4!D10</f>
+        <v>1.0563373919936024E-3</v>
+      </c>
+      <c r="D10" s="3">
+        <f ca="1">Schem4!D10</f>
+        <v>1.0563373919936024E-3</v>
+      </c>
+      <c r="E10" s="3">
+        <f ca="1">Schem4!D13</f>
         <v>5.0301780571124016E-4</v>
       </c>
-      <c r="E10" s="6">
-        <f ca="1">Schem4!D7</f>
-        <v>4.1156002285465144E-4</v>
-      </c>
-      <c r="F10" s="6">
-        <f ca="1">Schem4!D8</f>
-        <v>4.527160251401161E-4</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+      <c r="F10" s="3">
+        <f ca="1">Schem4!D14</f>
+        <v>5.5331958628236416E-4</v>
+      </c>
+      <c r="G10" s="3">
+        <f ca="1">Schem4!E10</f>
+        <v>-30.199858071143527</v>
+      </c>
+      <c r="H10" s="3">
+        <f ca="1">Schem4!E12</f>
+        <v>59.800141928856419</v>
+      </c>
+      <c r="I10" s="3">
+        <f ca="1">Schem4!E13</f>
+        <v>-30.199858071143606</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="str">
-        <f t="shared" si="1"/>
+      <c r="A11" s="5" t="str">
+        <f t="shared" si="3"/>
         <v>Measured</v>
       </c>
-      <c r="B11" s="6">
-        <f t="shared" ca="1" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="B11" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="C11" s="3">
+        <f ca="1">C10</f>
+        <v>1.0563373919936024E-3</v>
+      </c>
+      <c r="D11" s="3">
+        <f t="shared" ref="D11:I11" ca="1" si="5">D10</f>
+        <v>1.0563373919936024E-3</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>5.0301780571124016E-4</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>5.5331958628236416E-4</v>
+      </c>
+      <c r="G11" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>-30.199858071143527</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>59.800141928856419</v>
+      </c>
+      <c r="I11" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>-30.199858071143606</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
